--- a/wikipedia_validation_sheets/Tetanus DISNET VALIDATION.xlsx
+++ b/wikipedia_validation_sheets/Tetanus DISNET VALIDATION.xlsx
@@ -1,24 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10319"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11208"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gerardo/Documents/1.Doctorado/3_SEMESTRE/PAPER/estructura_disnet/paperLinks/GITLAB/wikipedia_validation_sheets/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gerardo/Documents/1.Doctorado/3_SEMESTRE/PAPER/estructura_disnet/paperLinks/paperdisnet/wikipedia_validation_sheets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{0F37EFA5-40D4-604F-913B-7812D77023A9}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E600A99-BF6A-5A47-81B3-52C444524B9B}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="20500" windowHeight="15440" xr2:uid="{CF915BD0-0557-40D8-9E86-96D7E49BAF2C}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="17620" windowHeight="7120" xr2:uid="{CF915BD0-0557-40D8-9E86-96D7E49BAF2C}"/>
   </bookViews>
   <sheets>
     <sheet name="VALIDATION" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -49,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="471" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="531" uniqueCount="170">
   <si>
     <t>WIKIPEDIA TERMS</t>
   </si>
@@ -462,9 +468,6 @@
     <t>Behavior showing increased motor activity</t>
   </si>
   <si>
-    <t>SUFFOCATION</t>
-  </si>
-  <si>
     <t>UNCONTROLLED URINATION OR DEFECATION</t>
   </si>
   <si>
@@ -474,9 +477,6 @@
     <t>Sympathetic overactivity</t>
   </si>
   <si>
-    <t>TACHYCARDIA</t>
-  </si>
-  <si>
     <t>peripheral vasculature constriction</t>
   </si>
   <si>
@@ -493,6 +493,78 @@
   </si>
   <si>
     <t>Paralysis of the facial nerve</t>
+  </si>
+  <si>
+    <t>rapid, heart, rate, tachycardia</t>
+  </si>
+  <si>
+    <t>Tachycardia</t>
+  </si>
+  <si>
+    <t>[patf]</t>
+  </si>
+  <si>
+    <t>suffocation</t>
+  </si>
+  <si>
+    <t>Asphyxia</t>
+  </si>
+  <si>
+    <t>identification</t>
+  </si>
+  <si>
+    <t>Identification - mental defense mechanism</t>
+  </si>
+  <si>
+    <t>[menp]</t>
+  </si>
+  <si>
+    <t>contracted, contraction, contractions</t>
+  </si>
+  <si>
+    <t>Contraction (finding)</t>
+  </si>
+  <si>
+    <t>stump</t>
+  </si>
+  <si>
+    <t>Amputation stump</t>
+  </si>
+  <si>
+    <t>[acab]</t>
+  </si>
+  <si>
+    <t>constriction</t>
+  </si>
+  <si>
+    <t>Stenosis</t>
+  </si>
+  <si>
+    <t>progression</t>
+  </si>
+  <si>
+    <t>Course of illness</t>
+  </si>
+  <si>
+    <t>affect</t>
+  </si>
+  <si>
+    <t>Affect, NOS</t>
+  </si>
+  <si>
+    <t>sensitivity</t>
+  </si>
+  <si>
+    <t>Hypersensitivity</t>
+  </si>
+  <si>
+    <t>ptosis</t>
+  </si>
+  <si>
+    <t>Blepharoptosis</t>
+  </si>
+  <si>
+    <t>[anab]</t>
   </si>
 </sst>
 </file>
@@ -886,7 +958,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
@@ -953,18 +1025,14 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="22" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="23" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1332,14 +1400,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF501930-A237-4EA3-A3D6-166E67897307}">
-  <dimension ref="A1:I73"/>
+  <dimension ref="A1:I92"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B45" workbookViewId="0">
-      <selection activeCell="F69" sqref="F69"/>
+    <sheetView tabSelected="1" topLeftCell="D62" workbookViewId="0">
+      <selection activeCell="I67" sqref="I67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="1" max="1" width="3.1640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="41.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="39.5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16.1640625" bestFit="1" customWidth="1"/>
@@ -1349,43 +1418,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="32" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B1" s="44" t="s">
+      <c r="B1" s="38" t="s">
         <v>121</v>
       </c>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
-      <c r="E1" s="45"/>
-      <c r="F1" s="45"/>
-      <c r="G1" s="45"/>
-      <c r="H1" s="45"/>
-      <c r="I1" s="45"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="39"/>
+      <c r="G1" s="39"/>
+      <c r="H1" s="39"/>
+      <c r="I1" s="39"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="46" t="s">
+      <c r="C2" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="47"/>
-      <c r="E2" s="50" t="s">
+      <c r="D2" s="41"/>
+      <c r="E2" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="52" t="s">
+      <c r="F2" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="53"/>
-      <c r="H2" s="53"/>
-      <c r="I2" s="54"/>
+      <c r="G2" s="47"/>
+      <c r="H2" s="47"/>
+      <c r="I2" s="48"/>
     </row>
     <row r="3" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C3" s="48"/>
-      <c r="D3" s="49"/>
-      <c r="E3" s="51"/>
-      <c r="F3" s="55"/>
-      <c r="G3" s="56"/>
-      <c r="H3" s="56"/>
-      <c r="I3" s="57"/>
+      <c r="C3" s="42"/>
+      <c r="D3" s="43"/>
+      <c r="E3" s="45"/>
+      <c r="F3" s="49"/>
+      <c r="G3" s="50"/>
+      <c r="H3" s="50"/>
+      <c r="I3" s="51"/>
     </row>
     <row r="4" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B4" s="2" t="s">
@@ -1671,7 +1740,7 @@
         <v>11</v>
       </c>
       <c r="I13" s="19" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
@@ -1758,7 +1827,7 @@
         <v>11</v>
       </c>
       <c r="I16" s="19" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
@@ -2019,7 +2088,7 @@
         <v>11</v>
       </c>
       <c r="I25" s="19" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.2">
@@ -2106,7 +2175,7 @@
         <v>11</v>
       </c>
       <c r="I28" s="19" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.2">
@@ -2135,7 +2204,7 @@
         <v>11</v>
       </c>
       <c r="I29" s="19" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.2">
@@ -3066,11 +3135,11 @@
         <v>12</v>
       </c>
     </row>
-    <row r="62" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>58</v>
       </c>
-      <c r="B62" s="35" t="s">
+      <c r="B62" s="23" t="s">
         <v>71</v>
       </c>
       <c r="C62" s="21" t="s">
@@ -3099,7 +3168,7 @@
       <c r="A63">
         <v>59</v>
       </c>
-      <c r="B63" s="32" t="s">
+      <c r="B63" s="23" t="s">
         <v>72</v>
       </c>
       <c r="C63" s="21" t="s">
@@ -3124,195 +3193,505 @@
         <v>12</v>
       </c>
     </row>
-    <row r="64" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B64" s="36"/>
-      <c r="C64" s="37"/>
-      <c r="D64" s="37"/>
-      <c r="E64" s="37"/>
-      <c r="F64" s="37"/>
-      <c r="G64" s="37"/>
-      <c r="H64" s="37"/>
-      <c r="I64" s="38"/>
-    </row>
-    <row r="65" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B65" s="32" t="s">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A64">
+        <v>60</v>
+      </c>
+      <c r="B64" s="23" t="s">
+        <v>146</v>
+      </c>
+      <c r="C64" s="21" t="s">
+        <v>147</v>
+      </c>
+      <c r="D64" s="21" t="s">
+        <v>148</v>
+      </c>
+      <c r="E64" s="22" t="b">
+        <v>1</v>
+      </c>
+      <c r="F64" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="G64" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="H64" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="I64" s="24" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A65">
+        <v>61</v>
+      </c>
+      <c r="B65" s="23" t="s">
+        <v>149</v>
+      </c>
+      <c r="C65" s="21" t="s">
+        <v>150</v>
+      </c>
+      <c r="D65" s="21" t="s">
+        <v>148</v>
+      </c>
+      <c r="E65" s="22" t="b">
+        <v>1</v>
+      </c>
+      <c r="F65" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="G65" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="H65" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="I65" s="24" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A66">
+        <v>62</v>
+      </c>
+      <c r="B66" s="23" t="s">
+        <v>151</v>
+      </c>
+      <c r="C66" s="21" t="s">
+        <v>152</v>
+      </c>
+      <c r="D66" s="21" t="s">
+        <v>153</v>
+      </c>
+      <c r="E66" s="22" t="b">
+        <v>0</v>
+      </c>
+      <c r="F66" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="G66" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="H66" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="I66" s="24" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A67">
+        <v>63</v>
+      </c>
+      <c r="B67" s="23" t="s">
+        <v>154</v>
+      </c>
+      <c r="C67" s="21" t="s">
+        <v>155</v>
+      </c>
+      <c r="D67" s="21" t="s">
+        <v>148</v>
+      </c>
+      <c r="E67" s="22" t="b">
+        <v>0</v>
+      </c>
+      <c r="F67" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="G67" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="H67" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="I67" s="24" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A68">
+        <v>64</v>
+      </c>
+      <c r="B68" s="23" t="s">
+        <v>156</v>
+      </c>
+      <c r="C68" s="21" t="s">
+        <v>157</v>
+      </c>
+      <c r="D68" s="21" t="s">
+        <v>158</v>
+      </c>
+      <c r="E68" s="22" t="b">
+        <v>0</v>
+      </c>
+      <c r="F68" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="G68" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="H68" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="I68" s="24" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A69">
+        <v>65</v>
+      </c>
+      <c r="B69" s="23" t="s">
+        <v>159</v>
+      </c>
+      <c r="C69" s="21" t="s">
+        <v>160</v>
+      </c>
+      <c r="D69" s="21" t="s">
+        <v>148</v>
+      </c>
+      <c r="E69" s="22" t="b">
+        <v>0</v>
+      </c>
+      <c r="F69" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="G69" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="H69" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="I69" s="24" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A70">
+        <v>66</v>
+      </c>
+      <c r="B70" s="23" t="s">
+        <v>161</v>
+      </c>
+      <c r="C70" s="21" t="s">
+        <v>162</v>
+      </c>
+      <c r="D70" s="21" t="s">
+        <v>148</v>
+      </c>
+      <c r="E70" s="22" t="b">
+        <v>0</v>
+      </c>
+      <c r="F70" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="G70" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="H70" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="I70" s="24" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A71">
+        <v>67</v>
+      </c>
+      <c r="B71" s="23" t="s">
+        <v>163</v>
+      </c>
+      <c r="C71" s="21" t="s">
+        <v>164</v>
+      </c>
+      <c r="D71" s="21" t="s">
+        <v>153</v>
+      </c>
+      <c r="E71" s="22" t="b">
+        <v>0</v>
+      </c>
+      <c r="F71" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="G71" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="H71" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="I71" s="24" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A72">
+        <v>68</v>
+      </c>
+      <c r="B72" s="23" t="s">
+        <v>165</v>
+      </c>
+      <c r="C72" s="21" t="s">
+        <v>166</v>
+      </c>
+      <c r="D72" s="21" t="s">
+        <v>148</v>
+      </c>
+      <c r="E72" s="22" t="b">
+        <v>0</v>
+      </c>
+      <c r="F72" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="G72" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="H72" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="I72" s="24" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A73">
+        <v>69</v>
+      </c>
+      <c r="B73" s="23" t="s">
+        <v>167</v>
+      </c>
+      <c r="C73" s="21" t="s">
+        <v>168</v>
+      </c>
+      <c r="D73" s="21" t="s">
+        <v>169</v>
+      </c>
+      <c r="E73" s="22" t="b">
+        <v>0</v>
+      </c>
+      <c r="F73" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="G73" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="H73" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="I73" s="24" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B74" s="34"/>
+      <c r="C74" s="35"/>
+      <c r="D74" s="35"/>
+      <c r="E74" s="35"/>
+      <c r="F74" s="35"/>
+      <c r="G74" s="35"/>
+      <c r="H74" s="35"/>
+      <c r="I74" s="36"/>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B75" s="23" t="s">
         <v>137</v>
       </c>
-      <c r="C65" s="39"/>
-      <c r="D65" s="39"/>
-      <c r="E65" s="39"/>
-      <c r="F65" s="40" t="s">
-        <v>11</v>
-      </c>
-      <c r="G65" s="41" t="s">
-        <v>12</v>
-      </c>
-      <c r="H65" s="42" t="s">
-        <v>12</v>
-      </c>
-      <c r="I65" s="43" t="s">
+      <c r="C75" s="28"/>
+      <c r="D75" s="28"/>
+      <c r="E75" s="28"/>
+      <c r="F75" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="G75" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="H75" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="I75" s="24" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="66" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B66" s="23" t="s">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B76" s="23" t="s">
         <v>138</v>
       </c>
-      <c r="C66" s="28"/>
-      <c r="D66" s="28"/>
-      <c r="E66" s="28"/>
-      <c r="F66" s="29" t="s">
-        <v>11</v>
-      </c>
-      <c r="G66" s="30" t="s">
-        <v>12</v>
-      </c>
-      <c r="H66" s="31" t="s">
-        <v>12</v>
-      </c>
-      <c r="I66" s="24" t="s">
+      <c r="C76" s="28"/>
+      <c r="D76" s="28"/>
+      <c r="E76" s="28"/>
+      <c r="F76" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="G76" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="H76" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="I76" s="24" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="67" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B67" s="23" t="s">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B77" s="23" t="s">
         <v>139</v>
       </c>
-      <c r="C67" s="28"/>
-      <c r="D67" s="28"/>
-      <c r="E67" s="28"/>
-      <c r="F67" s="29" t="s">
-        <v>11</v>
-      </c>
-      <c r="G67" s="30" t="s">
-        <v>12</v>
-      </c>
-      <c r="H67" s="31" t="s">
-        <v>12</v>
-      </c>
-      <c r="I67" s="24" t="s">
+      <c r="C77" s="28"/>
+      <c r="D77" s="28"/>
+      <c r="E77" s="28"/>
+      <c r="F77" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="G77" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="H77" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="I77" s="24" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="68" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B68" s="23" t="s">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B78" s="23" t="s">
         <v>140</v>
       </c>
-      <c r="C68" s="28"/>
-      <c r="D68" s="28"/>
-      <c r="E68" s="28"/>
-      <c r="F68" s="29" t="s">
-        <v>11</v>
-      </c>
-      <c r="G68" s="30" t="s">
-        <v>12</v>
-      </c>
-      <c r="H68" s="31" t="s">
-        <v>12</v>
-      </c>
-      <c r="I68" s="24" t="s">
+      <c r="C78" s="28"/>
+      <c r="D78" s="28"/>
+      <c r="E78" s="28"/>
+      <c r="F78" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="G78" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="H78" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="I78" s="24" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="69" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B69" s="23" t="s">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B79" s="23" t="s">
         <v>141</v>
       </c>
-      <c r="C69" s="28"/>
-      <c r="D69" s="28"/>
-      <c r="E69" s="28"/>
-      <c r="F69" s="29" t="s">
-        <v>11</v>
-      </c>
-      <c r="G69" s="30" t="s">
-        <v>12</v>
-      </c>
-      <c r="H69" s="31" t="s">
-        <v>12</v>
-      </c>
-      <c r="I69" s="24" t="s">
+      <c r="C79" s="28"/>
+      <c r="D79" s="28"/>
+      <c r="E79" s="28"/>
+      <c r="F79" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="G79" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="H79" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="I79" s="24" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="70" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B70" s="23" t="s">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B80" s="23" t="s">
         <v>142</v>
       </c>
-      <c r="C70" s="28"/>
-      <c r="D70" s="28"/>
-      <c r="E70" s="28"/>
-      <c r="F70" s="29" t="s">
-        <v>11</v>
-      </c>
-      <c r="G70" s="30" t="s">
-        <v>12</v>
-      </c>
-      <c r="H70" s="31" t="s">
-        <v>12</v>
-      </c>
-      <c r="I70" s="24" t="s">
+      <c r="C80" s="28"/>
+      <c r="D80" s="28"/>
+      <c r="E80" s="28"/>
+      <c r="F80" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="G80" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="H80" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="I80" s="24" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="71" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B71" s="23" t="s">
-        <v>143</v>
-      </c>
-      <c r="C71" s="28"/>
-      <c r="D71" s="28"/>
-      <c r="E71" s="28"/>
-      <c r="F71" s="29" t="s">
-        <v>11</v>
-      </c>
-      <c r="G71" s="30" t="s">
-        <v>12</v>
-      </c>
-      <c r="H71" s="31" t="s">
-        <v>12</v>
-      </c>
-      <c r="I71" s="24" t="s">
+    <row r="81" spans="2:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B81" s="32" t="s">
+        <v>145</v>
+      </c>
+      <c r="C81" s="25"/>
+      <c r="D81" s="25"/>
+      <c r="E81" s="25"/>
+      <c r="F81" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="G81" s="26" t="s">
+        <v>12</v>
+      </c>
+      <c r="H81" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="I81" s="33" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="72" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B72" s="23" t="s">
-        <v>144</v>
-      </c>
-      <c r="C72" s="28"/>
-      <c r="D72" s="28"/>
-      <c r="E72" s="28"/>
-      <c r="F72" s="29" t="s">
-        <v>11</v>
-      </c>
-      <c r="G72" s="30" t="s">
-        <v>12</v>
-      </c>
-      <c r="H72" s="31" t="s">
-        <v>12</v>
-      </c>
-      <c r="I72" s="24" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="73" spans="2:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B73" s="33" t="s">
-        <v>147</v>
-      </c>
-      <c r="C73" s="25"/>
-      <c r="D73" s="25"/>
-      <c r="E73" s="25"/>
-      <c r="F73" s="29" t="s">
-        <v>11</v>
-      </c>
-      <c r="G73" s="26" t="s">
-        <v>12</v>
-      </c>
-      <c r="H73" s="27" t="s">
-        <v>12</v>
-      </c>
-      <c r="I73" s="34" t="s">
-        <v>13</v>
-      </c>
+    <row r="83" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B83" s="37"/>
+      <c r="C83" s="37"/>
+      <c r="D83" s="37"/>
+      <c r="E83" s="37"/>
+    </row>
+    <row r="84" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B84" s="37"/>
+      <c r="C84" s="37"/>
+      <c r="D84" s="37"/>
+      <c r="E84" s="37"/>
+    </row>
+    <row r="85" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B85" s="37"/>
+      <c r="C85" s="37"/>
+      <c r="D85" s="37"/>
+      <c r="E85" s="37"/>
+    </row>
+    <row r="86" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B86" s="37"/>
+      <c r="C86" s="37"/>
+      <c r="D86" s="37"/>
+      <c r="E86" s="37"/>
+    </row>
+    <row r="87" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B87" s="37"/>
+      <c r="C87" s="37"/>
+      <c r="D87" s="37"/>
+      <c r="E87" s="37"/>
+    </row>
+    <row r="88" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B88" s="37"/>
+      <c r="C88" s="37"/>
+      <c r="D88" s="37"/>
+      <c r="E88" s="37"/>
+    </row>
+    <row r="89" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B89" s="37"/>
+      <c r="C89" s="37"/>
+      <c r="D89" s="37"/>
+      <c r="E89" s="37"/>
+    </row>
+    <row r="90" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B90" s="37"/>
+      <c r="C90" s="37"/>
+      <c r="D90" s="37"/>
+      <c r="E90" s="37"/>
+    </row>
+    <row r="91" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B91" s="37"/>
+      <c r="C91" s="37"/>
+      <c r="D91" s="37"/>
+      <c r="E91" s="37"/>
+    </row>
+    <row r="92" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B92" s="37"/>
+      <c r="C92" s="37"/>
+      <c r="D92" s="37"/>
+      <c r="E92" s="37"/>
     </row>
   </sheetData>
   <mergeCells count="4">
